--- a/Sprint1/Sprint1.xlsx
+++ b/Sprint1/Sprint1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0671329\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\AppData\Local\Temp\Rar$DIa2176.14127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC8EE9FF-8CC4-48CF-B341-456A32D8BC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4901CAFF-05F6-45DA-9114-4BB9BE7386F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1BF4A9ED-95D8-462E-AFEE-621D82B404D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF4A9ED-95D8-462E-AFEE-621D82B404D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -62,15 +62,9 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Pedro Henrique e Pedro</t>
-  </si>
-  <si>
     <t>Concluído</t>
   </si>
   <si>
-    <t>Pedro Henrique, Pedro, Douglas</t>
-  </si>
-  <si>
     <t>Preenchimento de Termos e Atas</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>Reunião com o cliente e coleta conteúdo do site</t>
+  </si>
+  <si>
+    <t>Pedro H e Pedro A</t>
+  </si>
+  <si>
+    <t>Pedro H, Pedro A, Douglas</t>
   </si>
 </sst>
 </file>
@@ -150,10 +150,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +493,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,14 +507,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -538,13 +538,13 @@
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>45495</v>
@@ -553,18 +553,18 @@
         <v>45498</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>45495</v>
@@ -573,18 +573,18 @@
         <v>45498</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>45495</v>
@@ -593,7 +593,7 @@
         <v>45495</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>45495</v>
@@ -613,7 +613,7 @@
         <v>45503</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
